--- a/Dataprep/NC Stats Data/intentions/Intentions_2017.xlsx
+++ b/Dataprep/NC Stats Data/intentions/Intentions_2017.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricke\OneDrive\Desktop\DTSC4301A\Sprint 2\NC Stats Data\intentions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FD4FC3-60A6-4E36-A242-588126565CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBDEBAA-9DE3-4A0E-AA37-90DE30D0E1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="9468"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="9468"/>
   </bookViews>
   <sheets>
-    <sheet name="LEA_Graduate_Intention(5)" sheetId="1" r:id="rId1"/>
+    <sheet name="intentions_2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2003,6 +2003,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>